--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/31_Erzurum_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/31_Erzurum_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE2C07EC-4FBE-4992-B49D-285F7E994F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8490734C-AFBF-4BD2-8201-F8789D0A2287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{9D3AB0DA-776F-47D6-BFE6-8C67CE4E6318}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{3C0F9F59-54C7-40F8-9B8F-E47824C83866}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -937,13 +937,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{D136BABC-6F44-4E77-8BAC-374A84A0D179}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{6FCBB340-55EB-46B4-9593-F4C8E14B5D07}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{DEC14239-1958-4B1F-8B06-E8280B14F165}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{F5A104AD-2177-413F-AB00-F552BA4B902F}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{04AC918B-02CA-4690-B631-BCB76150E7C6}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{8DC1E329-EF8C-4FE1-B1CE-72A2A4BDA975}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{B8C45814-C7C0-4A31-94FF-7679CF25A3DA}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{7618C9CB-EAC3-4301-9B5C-D325452598B0}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B2B9EE20-9A37-4FC5-BD9E-1634092BD1E3}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{E265EDDF-CD04-48F9-8753-3BF3B45DAE49}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{09FE8211-13F5-4FCC-8CA7-D70669A17B2B}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{F11EF71E-B3A6-4950-9027-AA9F11DAD5E6}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{AE8BC7CA-DB9F-4F40-8982-51121B45F0E3}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{8E02F12F-D71B-43BC-8A4F-1D98DEEFBC74}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8BC527-695F-47EC-A2FE-2F497D1E6DE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89591839-E423-49E5-8C66-D0557054EA90}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2552,18 +2552,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{35EAC5BC-7CDD-4359-A184-9422D94804FE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{84663D80-EF6D-4F4F-8436-2CBB26ABE025}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{59F61472-12F0-4DE9-AC8A-425DA5D2CC0C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{353025E2-57CC-4130-BB22-D8399D0226F0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{92923D8A-4320-4E03-BC44-69F127D3CBEB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1C60DEB1-43AE-4F76-82DF-5B7AA7413F00}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{96B8495F-EC72-4727-BFD8-3B7C000AFE7E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{49A02A70-630E-4662-AAC1-CE7AF70A6996}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DD3E33C6-569D-41E5-AC20-B8CB1C33116C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0580E09C-A397-4B65-840E-306B9941B2D2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2A3D8464-5165-4AF9-8936-9057845501D2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E1F148F8-90CC-4BD9-89D6-E7BF1527B90D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F985A549-2D49-47F8-9A2A-9979B128AA00}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4BBD41C0-71EA-4092-8457-70BFE8E65D77}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1039DCC6-B24B-4DAD-8AC1-40D3356298CC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4134CB05-F7A7-4CA5-A141-B3C1E71AFF6E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2D9DE4F2-6F30-4573-B4C4-217770BF6220}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6341F466-67AA-493C-B4A8-82F8DC4DD1F6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B9149804-7FAF-4574-A9BA-29F265B76A38}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{881F01F0-2C5F-47F7-9C5B-1AC35F8C5673}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AD602650-5ADB-45CF-BEC6-77ACF5AC0F8F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FBCCBEB8-1140-4667-8CD8-1A523C0A752E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A6A5AB97-A42E-4221-898A-3994B3B8A49A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5075D7DA-09D3-42C2-86A1-E5E4C6E8FA3F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2576,7 +2576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC874D93-2786-4BBA-91C5-69B9D9D5F3FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD30E11-CAE1-4B40-BBD5-D16124D5F30E}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3784,18 +3784,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D7AD45DA-BB94-4D3D-AB60-E3CD83C845F4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0F05B115-934E-4E7C-9817-BC1A0D3E9E9B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{586C6FFF-5D31-4600-A62E-28C2E80E54F8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{13F8F0BC-C8F5-4769-A9B7-57EA28F5DD2D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1D10F28D-DF5B-437A-8544-8DB2EDB4BF5E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3BF8FCB1-E405-4ECC-8B98-84F379F1DA66}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8F7DD874-3189-4EBC-BA40-CFD010F2AA0F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B31EB9D6-A4E8-452C-B28B-7A3C74894776}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{835AD5F1-7695-48F8-95F0-0FBBBB53261F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{281D9F98-E291-4146-8ED6-61FFC608CF30}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4085190E-07E3-4B49-A3ED-FF701F8449BC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{79F97E97-E891-4938-90BC-70019F23822D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EB373B51-CFD2-4C34-9C10-CC840C5F41CF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7C3DEC1F-AB3E-4E58-B0F7-FF85035AC7D9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F3D0D460-F418-4A36-80A4-3F4E51FB71B2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2095803B-7C83-45D7-B2BB-D77417CAD975}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5098DCE8-1206-497A-8D86-5FD207360B8A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{163CB7FB-CE4B-4E62-87CD-7940E40F514A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BB67FF3A-1187-4672-8B09-FFCC83919A15}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EA71802D-EE0C-4A06-B35E-3AA80AA68CAF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9CB2BCFD-F7D5-44A6-BA02-EFE835D075EB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B26DBF93-8781-4CAC-80F0-74E209672F0D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{40653537-6D80-466C-A08C-17601CCD03C8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B3BB63F7-437B-45DE-B285-BA7E17CA0F15}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3808,7 +3808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1E11A4-4E00-4FA9-AFCE-AECAF1390D04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E591AA8-64DD-4397-B983-33BF385A1E61}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5016,18 +5016,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CAEF4636-A3A2-4377-9C55-5E8EB3E8B044}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{32FD356A-B199-4B41-A971-FF499DD624D1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D18A047E-ACE6-431D-9237-04169559CE8C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AA0F9D27-E9A2-46A3-A08F-D874EC4F98C5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DB9B8EA9-45AD-47CE-80B9-D265D5BA2DB0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9B12761D-944B-443D-9CB8-19C2BA969D17}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{362835A5-C382-48FB-8415-959CAE49371D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D776AEE5-D028-4D68-8A04-A3755DB73975}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B904328A-CA6B-429B-BB95-1394683055EE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D09146DC-BCB3-4778-B643-DA04F8F0AECC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AA723A8A-6DC8-4F3F-9759-629173BDA3E3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{022A66F8-3681-452F-9700-5146CFF2B95F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1FBD9D73-5948-4328-85C3-7A03F987FEB6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3F1D83F1-B96A-430A-85CC-8113C7F58DB5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{89F8EAC8-21ED-4A13-BCC1-6027922EEEE6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E8437EB1-ABD3-47A3-B874-DBEB69CF40FB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4687FEA0-B737-4028-83D2-AD7B923CFF1F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{034B41B7-00C8-40B5-AB6A-7C6156BBA876}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0DEBF4C6-6EDA-40FC-87A9-B710A5D168BA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{68E02528-B4E6-49EB-B81F-A4BF250B9E43}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{71764672-1DC7-48A8-A002-856DE39C7216}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{326684B3-8952-48DF-BD02-D802BBA60BAF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A947D7D8-F39D-4084-B6FF-0B8714B604DF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A5137FDF-95A0-48FA-AD45-6AFB1084F8DB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5040,7 +5040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B38C8B5-CF52-4A6D-8323-20F17F85B753}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBD11BC-6C24-424C-B92B-C6F1DDAFC5BE}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6244,18 +6244,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2CE99933-19D3-4F7B-B142-B81870CB17BD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C7AF1DF4-2AA4-4D77-938F-E19EAF76C16E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CE10BFDB-2E84-4170-A095-35C27B0C430C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{82E36CEF-6C1D-4279-8576-B8231FBD9EA9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A6D22BDB-664D-4C09-AC99-644E1A8B20AA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0E01A11C-5068-4716-86D3-6D7D9577B9FD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5B8B12C2-64F5-4738-9BC5-F5DC37C92F2D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7EB38881-3777-4E5E-AD04-1DEB0265EC0C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CCDDB5FC-D367-4231-996B-FF7F67986C44}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{44CC3679-76C7-4D82-BB41-BF3B516FC809}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3E39A68F-9A79-4DCE-9796-10B64B288CCB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C5A48BCF-436A-4876-A243-0C0301A0F23F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D315CD88-8BF6-4287-819E-8A734AAD3C45}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9604C3FE-264B-4122-9057-20F70F2AAB39}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5912F2ED-6AC1-4E9F-B488-15082624605D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{82A5D893-D60E-4131-BCFF-715A732C4A12}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0B70EF60-5E4D-4B1E-9C55-D7487DFB9527}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AFB7BF13-CD8B-48EC-A9FF-896BC0EFD18D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7BB03C9C-C3E9-4402-908E-02C38623F381}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1331AE02-8678-4B2A-85AE-30DD131C8E42}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9878415D-A912-4C69-9EB1-27AF17555A18}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{76340431-82FE-457F-AFF1-0801C621FB20}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CB0EE94F-DB18-4FE4-A198-432360CDD028}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D5056F62-FBDD-40D0-BF12-A5722C88AB94}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6268,7 +6268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC18E1D0-DB99-4BAF-B8C5-6457A3B06C03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB0564A-9C97-4F8E-913B-E94AC6E728D8}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -7512,18 +7512,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{813B514E-C1EF-424C-8462-C9F495782A69}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2CF1F502-F649-4B4E-9908-33B67F87D554}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{23DDDC25-3227-435F-9A2F-BAC72DA46D41}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{13386ACB-0887-4400-9E5A-225BC65B42AF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{74AF684F-0798-4194-A648-CD7A573CFC99}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B1200E35-E183-4C80-8209-EAD82FD4E4EE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7504A7A6-062D-4CCD-900F-2F959550CF02}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1951EBAF-6F00-4055-B44A-37FFB1B81D02}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5D0E1CD2-54A6-4F57-83EB-ED8FF2B48A84}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{77907755-DDA6-4FB1-8953-97A9703B50DA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B2DC5C26-995A-4BDB-A3B6-76903408E51E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4AF9FDC8-70EF-49DA-AE74-0D5004B04797}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{61560391-4473-4F2B-9ECA-7630E9374753}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C999C0D3-552E-4A9E-B1A7-A755788358A4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{399ACC6D-3401-4E7E-80F4-B4052F717245}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{61B4D003-85D2-4A4C-8E3D-1D3B48F99DC6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{95648002-FAA0-413B-A026-4E6C16F71357}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B05AD94C-A23E-4B29-92BD-5637FF92861D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{215FCF47-B170-4F7D-AD9C-0206F6711FA0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C42A4BAC-3C53-470F-9D03-EFED38A5368D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{10868BFA-D590-4749-B8BA-A24EBE0E2CB6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E41896C7-0803-41F5-AC52-267274F2155E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D05BF333-F5DC-400B-BE6E-45ECF6262B26}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CEF061C0-D08D-4FBC-B3BB-087A7F6A114F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7536,7 +7536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD8748F-DEB3-4D3D-9F4D-8F330AF1D799}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A12CB4-004D-440C-9053-B0B302F6895F}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -8772,18 +8772,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2602A584-9F0E-48B8-BBE3-78F4C330BCCE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{154E3D16-37C0-49B9-A711-173774E317C9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6177E19E-AA04-4E5C-A8B1-435860A20029}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D28E0DAD-39A6-40C4-8A5B-4D36B2FAD1B4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D9D798CA-3416-438D-A7DC-EA83241669CD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1F902019-5340-4D21-A658-D247AE6800BD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A07177E3-5207-4B17-8119-A583237D7C9A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3D1BAD1A-29C0-407B-A557-39FAD8675EDA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C000B917-9C6F-4E27-A102-86892E66EE8A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{61492A51-F7D0-4732-B2E1-EAD7151EDC31}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D8108F18-AA36-43FE-807F-BD887B98DEC4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{71D0434F-166D-4709-8256-4B7AD8A8C995}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C750ECBF-D9D4-44F3-BFE8-A860C95AE45D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{490FE808-04A7-406D-A31A-668841F300F4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{92F2830B-1196-4A84-A50C-F7AB9ECB8734}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ADCB2046-452B-4453-B303-3C828A7E3637}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{848EBF45-D738-473C-8D0C-B8A2EED45C0B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{33E7B4C7-0BDA-4AAE-B106-787667912B37}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{84C6B3E0-96F7-4EBB-AA95-E356D4D35D0F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{43EE4814-7C7F-4634-9F42-7A9BC34210B7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{15D0C50D-8F6D-4664-8495-A2DC2132ACF7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CFB996B7-6FFC-44BA-88BE-1E0298F98B61}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E44FBE7A-D33C-49D2-96CD-1F45915EAE35}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3E725203-4502-4426-9F57-AAD13B7D0FEA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8796,7 +8796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C774C251-A9DF-45DA-A4D3-2CF343BA02C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A99B0E8-DF2F-4A6C-B756-F0130FF46FFF}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -10028,18 +10028,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ACFAC212-014E-42CA-B834-05975526E127}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8D8C9570-D2C3-4EC6-B252-EFCD42F6DF1E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CFCEAA58-6CE1-4BD4-8D61-D324697544E6}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{531DCDC9-B727-41B5-8A6A-EB7566A3FDFC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CEBC6E67-8431-459A-B33A-471CB4D3CD5A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8C46BEFD-D2E8-4DBA-B6B2-DD9B3F3C16B5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{12B818EE-E513-45F7-A8B4-837F9DCA40F6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9BBF5234-D766-460E-907F-04A6A26DFAB0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B09291C2-4274-473C-BBF6-B8BFDB826106}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D119A1A4-C600-4502-826E-7A523F4F48B6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{447D7A72-9DC6-40C4-A1F7-48DBC9EABF25}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A3F9EA8F-8941-439C-A585-3A360104B254}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CDEC1B76-1429-4901-A102-0D5BD0488B1D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F11B7216-1DEF-458B-B0E0-B86C4F211A48}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D901855A-7381-456C-A1E8-0C529DFDB0E3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B4F4B7BF-4BA8-467B-AFDC-98DDDE23D0C5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5A982004-8310-4D60-A4A4-0F1DC8E179FD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{415192E7-3AB6-4580-919F-233CE1C02C9C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E9A94EE9-014B-4BA3-B587-C31912C78847}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4C4C558B-25FC-450A-B685-0DC57BAD6FE9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2B9C1E20-14AF-4129-A68A-B23250769176}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5C422B49-CD5F-42C4-B66E-F94E3B919CFF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{67FC6E23-EE50-4BC9-AA3B-D8F713D00DC6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C74B0139-B7BB-4BFD-9CFC-5E3A277F810C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10052,7 +10052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD056D9B-378E-4F60-B298-00BB6004C3F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2663792A-A885-4F25-9BCD-656B94866DC3}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11284,18 +11284,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{29B12227-41A2-420A-907F-B36946256708}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CFE81435-D975-4130-B5CA-500C1F467028}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D7B391DE-A349-4DF0-9529-1A897F230882}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D608B908-DAB7-41D8-B7B7-EDC3B47A07F3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{854941DD-9D9D-4D3E-B4BA-D3C3419167A2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D1D82136-B651-4304-B41C-3B3B0D8C0FFD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{25BA9B74-77E7-43B6-BDD5-FABDDD013D5A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8EF7003D-C8B9-4392-999D-56E9790F7DD3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{563C8265-07E2-428C-90D3-78DCE8884E1F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5726A0CC-F7B8-4DBC-B612-BE5FAD5DA946}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9D0C5E0D-1AE0-40B6-B3C8-C4D585B0343B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B94F610D-7A0C-48A5-A146-F0F909FB199A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{669FBA50-6AE1-4429-9DA2-EF9E06E05E11}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3090C9AE-2CC9-425D-9D9B-7987DD6EF8BE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{44126C5E-B7A8-4C07-98A1-EAF6D8FDD27E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0864A48A-592F-4D32-9041-107BE833374A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0948CEE1-AC4C-45DC-AFE6-7D7117782E71}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{36EADF9C-509B-4C0F-87AD-B50D9BF5C481}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6E89DA80-373E-4850-86B7-7070F64F4077}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8208579A-3BC4-466E-A04C-46F13860D4C1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C77502BC-5DAC-44BD-945C-A1C0453D497D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1D8CE46E-BC30-4050-BD69-4A519C6A48A8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{648A45D5-F5E8-4421-BC21-825A26864E71}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FB0A8523-9811-4503-9204-B2586DD06848}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11308,7 +11308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4DD262-1B4D-4C5A-8B98-24A97CB14182}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CEF69B-A4FC-446B-8DB3-358E3871B013}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12528,18 +12528,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F494063A-7916-415E-9BE5-7192CD8A6FD3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3D49E0EE-8117-4E92-A606-7F25A246F236}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{67B53B88-A450-4661-BAE0-37AD9DCCD02C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{35982852-2FA4-44D5-9A9E-4F534209E808}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D198CF9B-65BC-4E29-A830-505ADB93675F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{55F96885-AD40-4B29-A038-FD803E4A5E0A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2E6F8C4A-6BE9-4A64-8772-915CAB93997E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{26432459-C8C0-4ABF-969F-2721F3C7EDDB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3F9CD106-718C-4037-AF99-AE0CE8661DD3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D102967D-CCDB-479B-B718-70E59A3765ED}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9DFC6BB5-361A-4E59-987F-582C914B356D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8AE0053A-6ED0-4F51-8DBB-39A0CE08C3B8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{824D9120-1A47-4ACB-A825-20D6CE6F036E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{68167075-CA03-4EE6-93BC-2C7A73F4E079}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{567E4823-E7E4-4F75-84A1-9B574EA6EA51}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5FDC6D89-1676-4349-A0E7-0018DB765C94}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FEE98F39-3135-43F3-B4AE-FB95755A4AF1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{206A2529-3147-46C0-ACC3-1F61F3AC7E1A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D33EBEBF-4699-4828-80D8-A585CE4654A7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{28ADEF4D-A098-4B75-9732-1B8CF912D6F2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{659C8237-DB11-4551-A805-E3E3AB556A50}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D3996337-BC61-4864-B3D6-55F2D2233EA8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{47AC7326-257D-4BD9-89A6-7F7AC0F3BB37}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{67B8B8FE-37FF-46EB-B6C2-D0864BE9EDE6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12552,7 +12552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79768BA3-F725-4ED1-A49C-C77F5BE10F3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA81D9A9-C882-4107-ADAA-16C450F9C500}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13768,18 +13768,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1BEFE5F4-8F95-4106-9FE9-BE7AE7EBADF4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B6FF6A30-CA6F-4049-AB6E-C08E3296ADA3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A421ED16-9914-493F-B5AA-D02910A9F353}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DC61017B-0A04-47D4-8DDB-81D2D41455CC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{01A97619-C7D3-43FB-81C2-AE0CF9B436EE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D13599F8-3D4E-44A3-9BF3-B4E9E7D9F38A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2CBD8321-22EE-4E2B-BB51-9897CBEC94F0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{395DE8A0-2591-4F1A-9150-6EF7FD7E8CB6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CDCD72A7-DEA5-4503-A0C2-FF694C4F2134}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7AF4B795-EC69-4F1C-A99C-F3A6AA8AEC68}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9FF84CC4-4EF9-4662-B72C-8F2543721225}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8B209B03-2AD7-41AF-B137-3F91DFB430A5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A1BB5EF9-9CC8-4CE2-AF12-C7342CEA0566}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{78F4CAD0-EFF9-4657-9349-6A5FAACDDEFF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FA9252A9-F59F-4FFE-9FEE-7E014D3618B0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{64560E71-101D-4BDF-A2FE-7AF8A76426B6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8AAE0DA4-2660-42A5-94C3-CF95B8FBB915}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F4511AD5-A08B-4325-97C1-3E34888745B0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{085A87AC-3F05-4192-80E2-9FAD13FC3522}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1DBA55C4-5251-4A6B-B282-4F0431FA497F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{099D2B09-2B8C-4D2D-9BCB-D8FCC01BE824}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A50C407E-4F12-4879-B6AA-DCA8DAAFF759}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E624B430-840B-45CF-91D4-F21C6735A570}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7E965DDF-02EA-479E-9E48-4C8307324C2F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13792,7 +13792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3430BE7B-8C0B-49DC-A51B-8B968DEC8D9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC1DBDF-E215-486E-BD39-FC1AE58C248A}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15004,18 +15004,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6448D5C7-CEE7-4405-9C1A-745BF8A391EF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{855ABBCE-53F6-414F-90F3-FE1D6B83528D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C0A57B74-E206-4486-9446-31BD5ED4470F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E98AB2A4-4EB5-4CEB-9986-141D1E53706E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{96A0EEE3-452F-400A-A87D-9B5804EB6A79}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D4F7EB32-DE11-4F87-A5EE-50AF3FCE9C6D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{704B0112-8E86-4056-BC33-59675170AE1E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{337DD0B2-7C04-4DD0-8A32-73F37B5DA1DC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{047E01A0-905F-474E-B92C-95CBB374D438}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2DAEE036-A9B8-4CA4-84C8-3F718286CB5C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B97323EA-E3D4-485A-8306-9FF9500CF936}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3DCA2B48-D981-4881-ADFB-01F50CFDFD01}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D7A9C132-04CC-44E6-919F-DFF6440B6B8C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BCB0F0D4-0093-49EF-A2BF-1A7D577AD64C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ECB4AAFC-FB7A-4054-B513-53D429A2EF5D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2ED45BB1-DE4A-476B-BB5A-2410691B3C57}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{414EF4E8-B77F-4A6D-960E-239768883076}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D681D6D5-9515-4DF3-A063-965268AFBEBD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FAE5AEBD-1557-43E1-89DE-8673284CC44E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8F96529A-857E-456C-A9B0-167C6B5B31D1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6A72361A-D19A-487E-8B5B-6D6970B1B791}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{54C363C7-F3CD-4BB5-8AE9-AB23FC26A6AD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C61897DF-A285-4E3F-924F-C34D84B1451B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{28370B61-5BF1-4B70-B865-2DDC7F508933}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15028,7 +15028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C85C785-C51B-48BC-8F70-CDA0EC0A8BDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E92D710-42AD-41CF-B80E-B820A22D5426}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16240,18 +16240,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BDC389DF-D427-4FA7-8677-280387DBA522}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7D2D3666-C2D0-4141-B920-7AA97A3CA475}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C939B60E-14B7-49CC-85D1-56E96252F6C0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{20D70447-44AA-441D-BA82-29815CB3FAE5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{20A74F06-C8D2-4EE2-A754-38C04AF553F2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2E8D6435-C962-4C4D-95D5-FA0CA0B33406}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{589DC85C-4648-41C9-B0A3-408E75DA794F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6F43C303-2EC9-4BB8-A6F5-6BDF9CD6D7AB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{874D649C-D3DD-4F22-8CC4-35169AF013F0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{96B8E942-E9D0-4CFD-B064-355267DA2B00}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{06EE6310-52EF-4727-8376-BC37304AF1F8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{03A0F123-ABD4-42BE-B902-3D4BDD313BF6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A4A06A3F-8D8A-4CD1-9155-E5FE8F188B81}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{49E75175-D5E7-4E0D-89CA-7C253CDCDEC6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C6F33873-CD3E-45D5-891B-FA1FFB30589C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4DD39A95-8A43-4409-8DD5-AA6A28739281}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A9388472-84D9-4922-A92E-EC7AD953284D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{88D99205-0C9F-4927-87DA-568661C64E07}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1D2DA9E6-51BE-49EB-AB8A-B23D18559EEA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5F487A44-2EA8-4002-97B2-977727912AE1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6B729958-28D3-4FEF-AD97-7CE854AEC09D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D25B3C28-7736-4D73-AD94-71B0109C4A75}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0BE15331-56EA-44C3-A649-EB3FE8703916}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CAD60550-C553-463F-8DA8-BF3718BC81B4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
